--- a/arquivos extras/Fotografia.xlsx
+++ b/arquivos extras/Fotografia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Documents\Miguel\Code\Estudos\JavaScript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55319\Documents\Miguel\Code\Estudos\JavaScript\arquivos extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
   <si>
     <t>Valor</t>
   </si>
@@ -228,6 +228,99 @@
   </si>
   <si>
     <t>Manter</t>
+  </si>
+  <si>
+    <t>Astra</t>
+  </si>
+  <si>
+    <t>fotos de carro, Astra</t>
+  </si>
+  <si>
+    <t>fotos do volei  + banlek acumulado</t>
+  </si>
+  <si>
+    <t>fotos do volei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aniversários </t>
+  </si>
+  <si>
+    <t>Foto de carros</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tempo de fotografia</t>
+  </si>
+  <si>
+    <t>Vídeos cinematográficos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locais </t>
+  </si>
+  <si>
+    <t>Ilimitado</t>
+  </si>
+  <si>
+    <t>Todas que foram capturadas</t>
+  </si>
+  <si>
+    <t>4 ou 5</t>
+  </si>
+  <si>
+    <t>Vídeos cinematográficos(vertical ou horizontal)</t>
+  </si>
+  <si>
+    <t>40min</t>
+  </si>
+  <si>
+    <t>1H 30min</t>
+  </si>
+  <si>
+    <t>Ensaios particulares</t>
+  </si>
+  <si>
+    <t>Locais / Trocas de roupas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horas de captação </t>
+  </si>
+  <si>
+    <t>WhatsAap</t>
+  </si>
+  <si>
+    <t>No agurado</t>
+  </si>
+  <si>
+    <t>Meio</t>
+  </si>
+  <si>
+    <t>Eu trabalho com fotografia e vídeo e estou começando a montar um portfólio focado em barbearias. A ideia não é nada engessado nem compromisso logo de cara. Queria fazer um teste: produzir algumas fotos profissionais do seu trabalho e da barbearia, te entregar esse material e, se você gostar, a gente conversa com calma sobre algo recorrente pra gerar conteúdo pro seu Instagram.</t>
+  </si>
+  <si>
+    <t>Estou ampliando meu portfólio na área de gastronomia e pensei em vocês justamente por isso. A ideia seria produzir algumas fotos profissionais dos produtos e do espaço, sem compromisso. Se vocês curtirem o resultado, podem usar o material normalmente.</t>
+  </si>
+  <si>
+    <t>Insta</t>
+  </si>
+  <si>
+    <t>Tô trampando com foto e vídeo e pensei em você porque treino rende um conteúdo muito bom. Ao mesmo tempo, eu também tô montando meu portfólio nessa área, então achei que podia ser um ganha-ganha.</t>
+  </si>
+  <si>
+    <t>Tô começando a montar meu portfólio com fotos e vídeos e pensei em você justamente porque seu trabalho tem muita presença real, não é só maquiagem bonita, é experiência.</t>
+  </si>
+  <si>
+    <t>Tô montando meu portfólio agora e tô precisando de umas fotos nessa pegada, e achei que fazia total sentido ser com você. Queria colar aí no estúdio pra fazer umas fotos suas, do espaço e das tattoos, com uma captação mais pensada.</t>
+  </si>
+  <si>
+    <t>Maré Gastrô</t>
+  </si>
+  <si>
+    <t>Sou fotógrafo e estou montando meu portfólio gastronômico no momento. Queria propor ir até o espaço pra criar algumas imagens — focadas nos pratos, no ambiente e também um pouco da cozinha, mostrando o processo e a identidade do lugar.</t>
+  </si>
+  <si>
+    <t>Para clientes maiores, com renda boa e SE quisessem, poderiam sim pegar o pacote premium</t>
   </si>
 </sst>
 </file>
@@ -237,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +365,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,8 +442,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -472,74 +598,276 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -823,160 +1151,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
-      <c r="B2" s="4" t="s">
+    <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B2" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C3" s="18">
         <v>200</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F3" s="21">
+        <v>375</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="23"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="43">
+        <v>10</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="40">
+        <v>35</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="43">
+        <v>1</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="40">
+        <v>1</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="43">
+        <v>5</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="40">
+        <v>15</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B11" s="36"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B13" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>150</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="21">
+        <v>200</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="34">
         <v>400</v>
       </c>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="23"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="43">
+        <v>15</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="40">
+        <v>25</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="40">
+        <v>1</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B22" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="44">
+        <v>1</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="42">
+        <v>2</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="24" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B24" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" t="s">
+      <c r="C25" s="18">
+        <v>150</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>200</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="34">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C27" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F27" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G27" s="24"/>
+      <c r="H27" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I27" s="37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" t="s">
+    <row r="28" spans="2:9">
+      <c r="B28" s="23"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C29" s="43">
+        <v>15</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F29" s="40">
+        <v>25</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="37">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="24"/>
+      <c r="H31" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="40">
+        <v>1</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32" s="37">
         <v>3</v>
       </c>
-      <c r="I6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7">
+    </row>
+    <row r="33" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B33" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="44">
+        <v>1</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="42">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="H10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
+      <c r="G33" s="26"/>
+      <c r="H33" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B24:I24"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I11"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -990,132 +1752,177 @@
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:9" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:9">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="50">
         <v>200</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7">
-        <v>500</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="21">
+        <v>400</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="34">
         <v>800</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16">
-        <v>30</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="52">
         <v>15</v>
       </c>
-      <c r="F4" s="15">
+      <c r="D4" s="24"/>
+      <c r="E4" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="40">
         <v>40</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="37">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="8"/>
-      <c r="C5" s="17"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="15"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="14"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="40">
         <v>2</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="24"/>
+      <c r="H6" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="14">
-        <v>4</v>
+      <c r="I6" s="37">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="H7" s="11" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="E8" s="12" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="40">
+        <v>3</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="H8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="40"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="23"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="H9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="C10" s="10"/>
-      <c r="H10" s="11" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="H11" s="11" t="s">
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="2:9" ht="60.75" customHeight="1" thickBot="1">
+      <c r="B11" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="26"/>
+      <c r="H11" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="39"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1126,121 +1933,143 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:5">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="20"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="21"/>
+      <c r="B3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="11">
+        <v>46044</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="15">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="20"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="11">
+        <v>46048</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="15">
+        <v>53.33</v>
+      </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="20"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="20"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="20"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="20"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="21"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="21"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="21"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="20"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="21"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="20"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="20"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="20"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="20"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="20"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="20"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="21"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" thickBot="1">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1249,216 +2078,479 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G38"/>
+  <dimension ref="B2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:8" ht="18.75">
+      <c r="B2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="70" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="2:8" ht="90">
+      <c r="B4" s="46" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="30" t="s">
+      <c r="C4" s="47">
+        <v>46040</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+    </row>
+    <row r="5" spans="2:8" ht="67.5">
+      <c r="B5" s="46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="30" t="s">
+      <c r="C5" s="47">
+        <v>46052</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="2:8" ht="56.25">
+      <c r="B6" s="46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="30" t="s">
+      <c r="C6" s="47">
+        <v>46049</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="2:8" ht="45">
+      <c r="B7" s="46" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="30" t="s">
+      <c r="C7" s="47">
+        <v>46052</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="2:8" ht="56.25">
+      <c r="B8" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="47">
+        <v>46052</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="2:8" ht="56.25">
+      <c r="B9" s="46" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="30" t="s">
+      <c r="C9" s="47">
+        <v>46049</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="46" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="30" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="46" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="30" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="46" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="30" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="46" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="30" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="46" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="30" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="46" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="30" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="46" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="30" t="s">
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="30" t="s">
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="46" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="30" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="46" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="30" t="s">
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="30" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="30" t="s">
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="30" t="s">
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="30" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="30" t="s">
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="30" t="s">
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="30" t="s">
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="30" t="s">
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="46" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="30" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="46" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="30" t="s">
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="30" t="s">
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="46" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="30" t="s">
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="46" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="30" t="s">
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="46" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="30" t="s">
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="46" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="30" t="s">
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="46" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="30" t="s">
+      <c r="C35" s="47"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="46" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="30" t="s">
+      <c r="C36" s="47"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="46" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="30" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="46" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="31" t="s">
+      <c r="C38" s="47"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="8" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" display="https://www.instagram.com/barbeariaapice?igsh=eWE3Zng3cGYyanFn"/>
+    <hyperlink ref="B39" r:id="rId1" display="https://www.instagram.com/barbeariaapice?igsh=eWE3Zng3cGYyanFn"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>